--- a/output/Dataset_2/isolated_observations.xlsx
+++ b/output/Dataset_2/isolated_observations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>766</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -500,23 +500,23 @@
         <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39</v>
+        <v>786</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Coereba flaveola</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>239</v>
+        <v>731</v>
       </c>
       <c r="D5" t="n">
-        <v>118</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -529,127 +529,127 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>792</v>
+        <v>707</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>433</v>
+        <v>761</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basileuterus sp</t>
+          <t>Coereba flaveola</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>452</v>
+        <v>723</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>761</v>
+        <v>39</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Coereba flaveola</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>786</v>
+        <v>140</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>601</v>
+        <v>792</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Call bird 2</t>
+          <t>Saltator maximus</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>559</v>
+        <v>682</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>792</v>
+        <v>142</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Saltator maximus</t>
+          <t>Leptopogon superciliaris</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>737</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57</v>
+        <v>1049</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Leptopogon superciliaris</t>
+          <t>Diasporus gularis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>113</v>
+        <v>795</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>708</v>
+        <v>562</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Call bird 1</t>
+          <t>Call bird 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>664</v>
+        <v>619</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>113</v>
+        <v>526</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Leptopogon superciliaris</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>518</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -657,23 +657,23 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>469</v>
+        <v>129</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sing bird 1</t>
+          <t>Leptopogon superciliaris</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>518</v>
+        <v>114</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -681,151 +681,151 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>129</v>
+        <v>385</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Leptopogon superciliaris</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>239</v>
+        <v>389</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>255</v>
+        <v>396</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>114</v>
+        <v>518</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Leptopogon superciliaris</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>129</v>
+        <v>473</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>562</v>
+        <v>473</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Call bird 2</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>396</v>
+        <v>113</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Leptopogon superciliaris</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>349</v>
+        <v>119</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>710</v>
+        <v>464</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Henicorhina leucosticta</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>649</v>
+        <v>480</v>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>480</v>
+        <v>119</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sing bird 1</t>
+          <t>Leptopogon superciliaris</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>464</v>
+        <v>95</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>566</v>
+        <v>381</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Call bird 2</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>605</v>
+        <v>358</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>457</v>
+        <v>358</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -833,42 +833,250 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>566</v>
+        <v>771</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>552</v>
+        <v>185</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Call bird 2</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>605</v>
+        <v>358</v>
       </c>
       <c r="D26" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>552</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Call bird 2</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>777</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>574</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Call bird 2</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>588</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Leptopogon superciliaris</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>18</v>
+      </c>
+      <c r="D29" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>558</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hyloxalus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>171</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>941</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Diasporus gularis</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>807</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D31" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>566</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Call bird 2</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>758</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>437</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sing bird 1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>469</v>
+      </c>
+      <c r="D33" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>193</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ramphocelus dimidiatus</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>325</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>469</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sing bird 1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>459</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>572</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hyloxalus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>568</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>459</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sing bird 1</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>469</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>807</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Diasporus gularis</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>956</v>
-      </c>
-      <c r="D27" t="n">
-        <v>104</v>
+      <c r="C38" t="n">
+        <v>941</v>
+      </c>
+      <c r="D38" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Leptopogon superciliaris</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>32</v>
+      </c>
+      <c r="D39" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>318</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ramphocelus dimidiatus</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>322</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
